--- a/config/excel/unitGroup.xlsx
+++ b/config/excel/unitGroup.xlsx
@@ -1,168 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\github.com\east-eden\server\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="HeroProto" sheetId="1" r:id="rId1"/>
+    <sheet name="HeroProto" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>行列头两行不会被读取</t>
+  </si>
+  <si>
+    <t>导出字段名</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>UnitTypeId</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>导出字段描述</t>
+  </si>
+  <si>
+    <t>怪物组id</t>
+  </si>
+  <si>
+    <t>怪物组名</t>
+  </si>
+  <si>
+    <t>怪物id</t>
+  </si>
+  <si>
+    <t>位置坐标</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
+  </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>导出字段默认值</t>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行列头两行不会被读取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>关卡场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,1</t>
+  </si>
+  <si>
+    <t>[101,102,103],[201,202,203],[301,302,303]</t>
   </si>
   <si>
     <t>竞技场场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物组id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物组名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitTypeId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置坐标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>101.5,102.5,103.5,201.5,202.5,203.5,301.5,302.5,303.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[101,102,103]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -185,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -215,6 +170,17 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -229,9 +195,78 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -243,115 +278,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff92d050"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -477,7 +495,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -486,7 +504,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -495,9 +513,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -569,7 +587,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -577,7 +595,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -596,19 +614,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -626,7 +644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -652,7 +670,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +722,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,15 +865,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -870,15 +882,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -897,7 +909,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +935,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +961,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +987,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1013,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1039,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1065,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1091,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1117,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1143,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,15 +1156,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1166,7 +1172,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1185,19 +1191,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1215,7 +1221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1345,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1371,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,161 +1442,167 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="16.15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="16.15" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="16.15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E3" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="4" ht="16.15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="5" ht="16.15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="16.15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" ht="14.65" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D7" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s" s="11">
         <v>19</v>
       </c>
+      <c r="F7" t="s" s="11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
+    <row r="8" ht="14.65" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s" s="13">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
+    <row r="9" ht="14" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
     </row>
-    <row r="6" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="10" ht="14" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/unitGroup.xlsx
+++ b/config/excel/unitGroup.xlsx
@@ -46,7 +46,10 @@
     <t>位置坐标</t>
   </si>
   <si>
-    <t>导出字段类型</t>
+    <t>客户端导出字段类型</t>
+  </si>
+  <si>
+    <t>服务器导出字段类型</t>
   </si>
   <si>
     <t>int</t>
@@ -55,25 +58,22 @@
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>manual</t>
+    <t>[]int</t>
+  </si>
+  <si>
+    <t>interface{}</t>
   </si>
   <si>
     <t>导出字段默认值</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>关卡场景</t>
   </si>
   <si>
     <t>1,2,1</t>
   </si>
   <si>
-    <t>[101,102,103],[201,202,203],[301,302,303]</t>
+    <t>101:102:103,201:202:203,301:302:303</t>
   </si>
   <si>
     <t>竞技场场景</t>
@@ -82,7 +82,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>[101,102,103]</t>
+    <t>101:102:103</t>
   </si>
 </sst>
 </file>
@@ -1454,14 +1454,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.6719" style="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
@@ -1527,78 +1527,86 @@
       <c r="B5" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="7">
-        <v>15</v>
-      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="9">
+      <c r="B6" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="6">
+    </row>
+    <row r="7" ht="16.15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" ht="14.65" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s" s="11">
-        <v>20</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" ht="14.65" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="14.65" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="13">
+      <c r="D9" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="E8" t="s" s="13">
+      <c r="E9" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="F8" t="s" s="13">
+      <c r="F9" t="s" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" ht="14" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" ht="14" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/unitGroup.xlsx
+++ b/config/excel/unitGroup.xlsx
@@ -52,13 +52,13 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>int</t>
+    <t>int32</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>[]int</t>
+    <t>[]int32</t>
   </si>
   <si>
     <t>interface{}</t>

--- a/config/excel/unitGroup.xlsx
+++ b/config/excel/unitGroup.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>interface{}</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
   </si>
   <si>
     <t>关卡场景</t>
@@ -1454,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1534,7 +1531,7 @@
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="8">
+      <c r="B6" t="s" s="9">
         <v>12</v>
       </c>
       <c r="C6" t="s" s="6">
@@ -1550,63 +1547,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="16.15" customHeight="1">
+    <row r="7" ht="14.65" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="3"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="E7" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="11">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" ht="14.65" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s" s="11">
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="13">
         <v>20</v>
       </c>
+      <c r="E8" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s" s="13">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="14.65" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s" s="13">
-        <v>23</v>
-      </c>
+    <row r="9" ht="14" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/unitGroup.xlsx
+++ b/config/excel/unitGroup.xlsx
@@ -1,55 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
-    <sheet name="HeroProto" sheetId="1" r:id="rId4"/>
+    <sheet name="UnitGroup" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
+    <t>怪物组表，多主键</t>
+  </si>
+  <si>
+    <t>怪物组id</t>
+  </si>
+  <si>
+    <t>怪物id</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>UnitTypeId</t>
-  </si>
-  <si>
-    <t>Position</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>unitId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
+    <t>posZ</t>
+  </si>
+  <si>
+    <t>rotate</t>
   </si>
   <si>
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>怪物组id</t>
-  </si>
-  <si>
-    <t>怪物组名</t>
-  </si>
-  <si>
-    <t>怪物id</t>
-  </si>
-  <si>
-    <t>位置坐标</t>
-  </si>
-  <si>
-    <t>客户端导出字段类型</t>
-  </si>
-  <si>
-    <t>服务器导出字段类型</t>
+    <t>怪物组名字</t>
+  </si>
+  <si>
+    <t>怪物x坐标</t>
+  </si>
+  <si>
+    <t>怪物y坐标</t>
+  </si>
+  <si>
+    <t>怪物z坐标</t>
+  </si>
+  <si>
+    <t>怪物朝向</t>
+  </si>
+  <si>
+    <t>字段控制</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
   </si>
   <si>
     <t>int32</t>
@@ -58,66 +88,186 @@
     <t>string</t>
   </si>
   <si>
-    <t>[]int32</t>
-  </si>
-  <si>
-    <t>interface{}</t>
-  </si>
-  <si>
-    <t>关卡场景</t>
-  </si>
-  <si>
-    <t>1,2,1</t>
-  </si>
-  <si>
-    <t>101:102:103,201:202:203,301:302:303</t>
-  </si>
-  <si>
-    <t>竞技场场景</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>101:102:103</t>
+    <t>demo版本场景怪物组1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,17 +277,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,89 +483,79 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -237,138 +563,325 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 主题">
+    <a:clrScheme name="Office 主题​​">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -406,7 +919,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 主题">
+    <a:fontScheme name="Office 主题​​">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -418,7 +931,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 主题">
+    <a:fmtScheme name="Office 主题​​">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,7 +1005,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -501,7 +1014,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -510,7 +1023,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -584,13 +1097,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -610,8 +1122,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -623,7 +1134,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -640,8 +1151,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,8 +1176,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,8 +1201,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,8 +1226,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,8 +1251,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,8 +1276,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,8 +1301,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,8 +1326,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,8 +1351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,9 +1364,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -879,13 +1387,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -905,8 +1412,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,8 +1437,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -957,8 +1462,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -983,8 +1487,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1009,8 +1512,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,8 +1537,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,8 +1562,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,8 +1587,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,8 +1612,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,8 +1637,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1153,9 +1650,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1166,8 +1669,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1187,8 +1688,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,7 +1700,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1217,8 +1717,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1243,8 +1742,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1269,8 +1767,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1295,8 +1792,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1321,8 +1817,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,8 +1842,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1373,8 +1867,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1399,8 +1892,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1425,8 +1917,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1439,9 +1930,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1450,23 +1947,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.84615384615385" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.9230769230769" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.69230769230769" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
+    <col min="10" max="16379" width="6" style="1" customWidth="1"/>
+    <col min="16380" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1474,130 +1976,201 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="16.15" customHeight="1">
+    <row r="2" ht="47" customHeight="1" spans="1:9">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:9">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="6">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>5</v>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>10</v>
-      </c>
+    <row r="5" ht="16.15" customHeight="1" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+    <row r="6" ht="16.15" customHeight="1" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" ht="16.15" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="14.65" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="10">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="11">
-        <v>19</v>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1234</v>
       </c>
     </row>
-    <row r="8" ht="14.65" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="12">
+    <row r="8" customHeight="1" spans="3:9">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="13">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s" s="13">
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1">
         <v>21</v>
       </c>
-      <c r="F8" t="s" s="13">
+      <c r="G8" s="1">
         <v>22</v>
       </c>
+      <c r="H8" s="1">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1">
+        <v>442</v>
+      </c>
     </row>
-    <row r="9" ht="14" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+    <row r="9" customHeight="1" spans="3:9">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1">
+        <v>55194</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/unitGroup.xlsx
+++ b/config/excel/unitGroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UnitGroup" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -25,36 +25,39 @@
     <t>怪物组id</t>
   </si>
   <si>
+    <t>怪物id，对应unit表</t>
+  </si>
+  <si>
+    <t>导出字段名</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>unitId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
+    <t>posZ</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>导出字段描述</t>
+  </si>
+  <si>
     <t>怪物id</t>
   </si>
   <si>
-    <t>导出字段名</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>unitId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>posX</t>
-  </si>
-  <si>
-    <t>posY</t>
-  </si>
-  <si>
-    <t>posZ</t>
-  </si>
-  <si>
-    <t>rotate</t>
-  </si>
-  <si>
-    <t>导出字段描述</t>
-  </si>
-  <si>
     <t>怪物组名字</t>
   </si>
   <si>
@@ -88,7 +91,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>demo版本场景怪物组1</t>
+    <t>demo怪物组1</t>
+  </si>
+  <si>
+    <t>demo怪物组2</t>
   </si>
 </sst>
 </file>
@@ -97,8 +103,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -117,7 +123,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +160,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,13 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -160,19 +211,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,7 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,47 +260,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,21 +272,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -288,37 +294,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,139 +426,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,15 +499,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,16 +528,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +568,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -570,175 +600,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,54 +758,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1947,21 +1953,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.84615384615385" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.69230769230769" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.85" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.925" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.69166666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="16379" width="6" style="1" customWidth="1"/>
     <col min="16380" max="16384" width="6" style="1"/>
@@ -2033,37 +2039,37 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2073,28 +2079,28 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:9">
@@ -2107,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5">
         <v>11</v>
@@ -2127,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1">
         <v>21</v>
@@ -2150,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <v>31</v>
@@ -2165,6 +2171,75 @@
         <v>33</v>
       </c>
       <c r="I9" s="1">
+        <v>55194</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:9">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:9">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:9">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
         <v>55194</v>
       </c>
     </row>
